--- a/Test/Workbooks/EN/Assets.xlsx
+++ b/Test/Workbooks/EN/Assets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Test\Workbooks\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5B6CF7-5DF5-4E90-B81A-482CB7DDB7F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B314475-C273-4966-BF8D-5EEB45AB67FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5190" yWindow="4560" windowWidth="20085" windowHeight="9570" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Get" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="29">
   <si>
     <t>Asset ID</t>
   </si>
@@ -107,10 +107,6 @@
     <t>Asset5</t>
   </si>
   <si>
-    <t>ryota.okuji@uipath.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>User</t>
   </si>
   <si>
@@ -129,12 +125,20 @@
   <si>
     <t>Asset6</t>
   </si>
+  <si>
+    <t>ocmtestuser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Robot Name or User's Username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,14 +157,6 @@
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -375,11 +371,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -464,10 +459,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="67">
@@ -7445,7 +7438,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F1" s="14" t="s">
         <v>2</v>
@@ -7462,10 +7455,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>13</v>
@@ -7485,10 +7478,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>13</v>
@@ -7508,10 +7501,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>13</v>
@@ -7531,7 +7524,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>19</v>
@@ -7540,10 +7533,10 @@
         <v>13</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
-      <c r="E5" s="52" t="s">
-        <v>21</v>
+      <c r="E5" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>15</v>
@@ -7556,7 +7549,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>20</v>
@@ -7565,10 +7558,10 @@
         <v>13</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
-      <c r="E6" s="52" t="s">
-        <v>21</v>
+      <c r="E6" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="F6" s="14" t="s">
         <v>17</v>
@@ -7581,19 +7574,19 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
-      <c r="E7" s="52" t="s">
-        <v>21</v>
+      <c r="E7" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>18</v>
@@ -9740,14 +9733,10 @@
       <formula1>"Global,Robot,User"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1" xr:uid="{6E51D869-E834-49D9-BB34-797811C2A2BD}"/>
-    <hyperlink ref="E6:E7" r:id="rId2" display="ryota.okuji@uipath.com" xr:uid="{E73263E4-E5C2-48F0-A9C2-1893AEC9DE71}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
